--- a/data/low_load/res_bus/va_degree.xlsx
+++ b/data/low_load/res_bus/va_degree.xlsx
@@ -470,28 +470,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>4.567078155275957</v>
+        <v>8.080871969855385</v>
       </c>
       <c r="D2" t="n">
-        <v>1.672981656899179</v>
+        <v>5.05805149934653</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.3720851534771947</v>
+        <v>1.039546157564216</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.7164246873682294</v>
+        <v>1.210874880943408</v>
       </c>
       <c r="G2" t="n">
-        <v>0.379913037656855</v>
+        <v>3.461942698196362</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1328297646589439</v>
+        <v>4.068189420455683</v>
       </c>
       <c r="I2" t="n">
-        <v>1.47733692631227</v>
+        <v>4.740641586957779</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.4111473408857223</v>
+        <v>1.953750653159024</v>
       </c>
     </row>
     <row r="3">
@@ -502,28 +502,28 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>4.495836471489028</v>
+        <v>8.225711215742255</v>
       </c>
       <c r="D3" t="n">
-        <v>1.604401484058249</v>
+        <v>5.218904045584</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.4004534573822449</v>
+        <v>1.113976879288002</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.7588663199715568</v>
+        <v>1.334928011916311</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3138957332620336</v>
+        <v>3.611623968421739</v>
       </c>
       <c r="H3" t="n">
-        <v>0.04557048376887229</v>
+        <v>4.23268046534161</v>
       </c>
       <c r="I3" t="n">
-        <v>1.410015354212456</v>
+        <v>4.877392438627457</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.4552424356856836</v>
+        <v>2.055077272729695</v>
       </c>
     </row>
     <row r="4">
@@ -534,28 +534,28 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>4.501455489547427</v>
+        <v>8.188301068897193</v>
       </c>
       <c r="D4" t="n">
-        <v>1.591163740816969</v>
+        <v>5.195343205517405</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.4112852863133145</v>
+        <v>1.113650330163055</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.791745843518378</v>
+        <v>1.348442822442532</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3027045106860753</v>
+        <v>3.590543747748776</v>
       </c>
       <c r="H4" t="n">
-        <v>0.05795137132269737</v>
+        <v>4.180312281208227</v>
       </c>
       <c r="I4" t="n">
-        <v>1.416028672336745</v>
+        <v>4.842392463090776</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.4553441670964964</v>
+        <v>2.040308060286406</v>
       </c>
     </row>
     <row r="5">
@@ -566,28 +566,28 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>4.451222280097151</v>
+        <v>8.213808532862954</v>
       </c>
       <c r="D5" t="n">
-        <v>1.526972615561564</v>
+        <v>5.189371894654792</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.4440244079783187</v>
+        <v>1.096658047986391</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.8491769655507053</v>
+        <v>1.296685145357531</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2470857629016316</v>
+        <v>3.585303010441285</v>
       </c>
       <c r="H5" t="n">
-        <v>0.01241829733422286</v>
+        <v>4.221183463536528</v>
       </c>
       <c r="I5" t="n">
-        <v>1.370147881991366</v>
+        <v>4.864513471413186</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.4978158908618203</v>
+        <v>2.040611200251631</v>
       </c>
     </row>
     <row r="6">
@@ -598,28 +598,28 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>4.475475831237515</v>
+        <v>8.201698701518733</v>
       </c>
       <c r="D6" t="n">
-        <v>1.573676985116742</v>
+        <v>5.185340247747999</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.4218372417874698</v>
+        <v>1.092525721028011</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.8001149820283826</v>
+        <v>1.294130106131218</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2829741153822992</v>
+        <v>3.575363446917488</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0248069344005344</v>
+        <v>4.198286586904944</v>
       </c>
       <c r="I6" t="n">
-        <v>1.388284373306809</v>
+        <v>4.849417372532613</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.4790579634642797</v>
+        <v>2.030561579205231</v>
       </c>
     </row>
     <row r="7">
@@ -630,28 +630,28 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>4.411989224057214</v>
+        <v>8.324411288158091</v>
       </c>
       <c r="D7" t="n">
-        <v>1.484795647177265</v>
+        <v>5.329567392085923</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.4636433458005333</v>
+        <v>1.16972640095451</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.8820440401672613</v>
+        <v>1.432051583419259</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2045847286606827</v>
+        <v>3.71533135403533</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.0401289930322276</v>
+        <v>4.336322149474804</v>
       </c>
       <c r="I7" t="n">
-        <v>1.330550049297107</v>
+        <v>4.968155322812152</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.5247420531311352</v>
+        <v>2.126351765060459</v>
       </c>
     </row>
     <row r="8">
@@ -662,28 +662,28 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>4.337653893491072</v>
+        <v>8.14503528653476</v>
       </c>
       <c r="D8" t="n">
-        <v>1.42864572321185</v>
+        <v>5.126025498482616</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.489061139516247</v>
+        <v>1.067844803106888</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.9063318302264567</v>
+        <v>1.257458462120212</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1466958930355207</v>
+        <v>3.525236162493906</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.1331072750210591</v>
+        <v>4.143733818033816</v>
       </c>
       <c r="I8" t="n">
-        <v>1.257068541413743</v>
+        <v>4.799947134209612</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.5778220446918869</v>
+        <v>1.992622269313713</v>
       </c>
     </row>
     <row r="9">
@@ -694,28 +694,28 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>4.505609131160024</v>
+        <v>8.233665257150376</v>
       </c>
       <c r="D9" t="n">
-        <v>1.600043758926815</v>
+        <v>5.209546365422668</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.4034599327559767</v>
+        <v>1.109587353390943</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.7732147962944951</v>
+        <v>1.312224226139075</v>
       </c>
       <c r="G9" t="n">
-        <v>0.3116840209393069</v>
+        <v>3.60602287081269</v>
       </c>
       <c r="H9" t="n">
-        <v>0.05744058886016652</v>
+        <v>4.247506765683195</v>
       </c>
       <c r="I9" t="n">
-        <v>1.418906341154131</v>
+        <v>4.888454538817169</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.4500873343292869</v>
+        <v>2.064867872178007</v>
       </c>
     </row>
     <row r="10">
@@ -726,28 +726,28 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>4.493933716362521</v>
+        <v>8.189111121941117</v>
       </c>
       <c r="D10" t="n">
-        <v>1.603167344974954</v>
+        <v>5.183195667418829</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.3985233106076513</v>
+        <v>1.095963884802662</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.7509526092748986</v>
+        <v>1.308823496451753</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3123515564811045</v>
+        <v>3.57083438600343</v>
       </c>
       <c r="H10" t="n">
-        <v>0.03421812916365308</v>
+        <v>4.173114532131267</v>
       </c>
       <c r="I10" t="n">
-        <v>1.404684703238952</v>
+        <v>4.834909084253653</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.4572987342227839</v>
+        <v>2.025819177653015</v>
       </c>
     </row>
     <row r="11">
@@ -758,28 +758,28 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>4.37384038637877</v>
+        <v>8.10708737802576</v>
       </c>
       <c r="D11" t="n">
-        <v>1.455664957312048</v>
+        <v>5.08057321807566</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.4703380535821897</v>
+        <v>1.048846022802286</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.887130700162223</v>
+        <v>1.217331161978357</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1767501892726292</v>
+        <v>3.480506967676496</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.08922699440180723</v>
+        <v>4.095373822877575</v>
       </c>
       <c r="I11" t="n">
-        <v>1.296558632531847</v>
+        <v>4.76570282115111</v>
       </c>
       <c r="J11" t="n">
-        <v>-0.5399881259879054</v>
+        <v>1.975553865712645</v>
       </c>
     </row>
     <row r="12">
@@ -790,28 +790,28 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>4.412494585961089</v>
+        <v>8.038230416245041</v>
       </c>
       <c r="D12" t="n">
-        <v>1.522789304041551</v>
+        <v>5.013943812939424</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.4424051280154808</v>
+        <v>1.012941575889178</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.8168682191673428</v>
+        <v>1.165854719570595</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2341620864896234</v>
+        <v>3.414425435510742</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.05408709508134428</v>
+        <v>4.01515049833455</v>
       </c>
       <c r="I12" t="n">
-        <v>1.325605945972655</v>
+        <v>4.696769418574867</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.5250892885970161</v>
+        <v>1.918048919756979</v>
       </c>
     </row>
     <row r="13">
@@ -822,28 +822,28 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>4.519388528994555</v>
+        <v>8.165262768867821</v>
       </c>
       <c r="D13" t="n">
-        <v>1.602100965223646</v>
+        <v>5.166146911686525</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.4094726053830916</v>
+        <v>1.098823950443265</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.7929986035404074</v>
+        <v>1.318789860781099</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3122429143308521</v>
+        <v>3.562798421020622</v>
       </c>
       <c r="H13" t="n">
-        <v>0.07693462962426982</v>
+        <v>4.156103943357266</v>
       </c>
       <c r="I13" t="n">
-        <v>1.430410104902766</v>
+        <v>4.821684625679067</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.4484982759561976</v>
+        <v>2.025153176860234</v>
       </c>
     </row>
     <row r="14">
@@ -854,28 +854,28 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>4.527110847523049</v>
+        <v>8.107695437007351</v>
       </c>
       <c r="D14" t="n">
-        <v>1.637457982597095</v>
+        <v>5.088974283337178</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.3900513921805253</v>
+        <v>1.046514840124853</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.7370458792441528</v>
+        <v>1.226001929491748</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3430841416953621</v>
+        <v>3.481531663401894</v>
       </c>
       <c r="H14" t="n">
-        <v>0.07839022326968531</v>
+        <v>4.081588489511548</v>
       </c>
       <c r="I14" t="n">
-        <v>1.434289473243345</v>
+        <v>4.754846143639065</v>
       </c>
       <c r="J14" t="n">
-        <v>-0.4453146387265141</v>
+        <v>1.958761870484767</v>
       </c>
     </row>
     <row r="15">
@@ -886,28 +886,28 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>4.359676274369773</v>
+        <v>8.182416383007498</v>
       </c>
       <c r="D15" t="n">
-        <v>1.442276786580433</v>
+        <v>5.166536240060041</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.483343098303489</v>
+        <v>1.090651420469119</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.908073203227629</v>
+        <v>1.293091061984576</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1603846833693235</v>
+        <v>3.562825529912386</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.1039807839621765</v>
+        <v>4.180160203438826</v>
       </c>
       <c r="I15" t="n">
-        <v>1.280635222739957</v>
+        <v>4.835851119556977</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.5586485257823695</v>
+        <v>2.026310207401202</v>
       </c>
     </row>
     <row r="16">
@@ -918,28 +918,28 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>4.493673312135239</v>
+        <v>8.220327022205684</v>
       </c>
       <c r="D16" t="n">
-        <v>1.584329492489341</v>
+        <v>5.233413628104748</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.4195327056497268</v>
+        <v>1.128600158121906</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.7972907008155089</v>
+        <v>1.377436233067319</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2963500297283289</v>
+        <v>3.625304577008405</v>
       </c>
       <c r="H16" t="n">
-        <v>0.05117252248648989</v>
+        <v>4.217369711253462</v>
       </c>
       <c r="I16" t="n">
-        <v>1.404386741831856</v>
+        <v>4.870682555747552</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.4750044002000585</v>
+        <v>2.056434948271197</v>
       </c>
     </row>
     <row r="17">
@@ -950,28 +950,28 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>4.493028460490602</v>
+        <v>8.196961854775838</v>
       </c>
       <c r="D17" t="n">
-        <v>1.603129370413626</v>
+        <v>5.197531298440587</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.4036141992590971</v>
+        <v>1.111528249395077</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.7609026317369577</v>
+        <v>1.340220334567696</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3103798214036012</v>
+        <v>3.591917845582637</v>
       </c>
       <c r="H17" t="n">
-        <v>0.03842076299955157</v>
+        <v>4.190096119303592</v>
       </c>
       <c r="I17" t="n">
-        <v>1.403988412794454</v>
+        <v>4.849058609572035</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.4627859336597481</v>
+        <v>2.042083177641474</v>
       </c>
     </row>
     <row r="18">
@@ -982,28 +982,28 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>4.356732366834952</v>
+        <v>8.070763407237692</v>
       </c>
       <c r="D18" t="n">
-        <v>1.449601824214113</v>
+        <v>5.065723112967047</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.4834375107024365</v>
+        <v>1.04142685049414</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.8959068352855749</v>
+        <v>1.2276622434856</v>
       </c>
       <c r="G18" t="n">
-        <v>0.160791581785474</v>
+        <v>3.460990994609135</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.1219152466526493</v>
+        <v>4.042083935224199</v>
       </c>
       <c r="I18" t="n">
-        <v>1.269069169987731</v>
+        <v>4.724146304562095</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.5708865568469862</v>
+        <v>1.941975837635862</v>
       </c>
     </row>
     <row r="19">
@@ -1014,28 +1014,28 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>4.513291861483358</v>
+        <v>8.227801590854817</v>
       </c>
       <c r="D19" t="n">
-        <v>1.620563952496335</v>
+        <v>5.211435568348917</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.3904068206326068</v>
+        <v>1.117173041980412</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.7434423712367504</v>
+        <v>1.332672613947522</v>
       </c>
       <c r="G19" t="n">
-        <v>0.3280533623260214</v>
+        <v>3.609703233531246</v>
       </c>
       <c r="H19" t="n">
-        <v>0.05663621697512713</v>
+        <v>4.236250185791014</v>
       </c>
       <c r="I19" t="n">
-        <v>1.42441196481334</v>
+        <v>4.883554049190715</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.4399454681670437</v>
+        <v>2.067366774221329</v>
       </c>
     </row>
     <row r="20">
@@ -1046,28 +1046,28 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>4.48000813980643</v>
+        <v>8.153523897280341</v>
       </c>
       <c r="D20" t="n">
-        <v>1.579744794533046</v>
+        <v>5.134679141182943</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.4119464356745985</v>
+        <v>1.073776937616421</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.7834734146904105</v>
+        <v>1.267523204897694</v>
       </c>
       <c r="G20" t="n">
-        <v>0.2950250596762398</v>
+        <v>3.529757550565561</v>
       </c>
       <c r="H20" t="n">
-        <v>0.03808755445565145</v>
+        <v>4.138432830044288</v>
       </c>
       <c r="I20" t="n">
-        <v>1.399008852781404</v>
+        <v>4.803242927265722</v>
       </c>
       <c r="J20" t="n">
-        <v>-0.4657077580980206</v>
+        <v>2.000305770921808</v>
       </c>
     </row>
     <row r="21">
@@ -1078,28 +1078,28 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>4.408126360524636</v>
+        <v>8.270809866848571</v>
       </c>
       <c r="D21" t="n">
-        <v>1.487414414662985</v>
+        <v>5.259036207320412</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.4631969080059089</v>
+        <v>1.134213472019908</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.8758098746828118</v>
+        <v>1.366912854087013</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2083262680929517</v>
+        <v>3.652434983212086</v>
       </c>
       <c r="H21" t="n">
-        <v>-0.03769011240018899</v>
+        <v>4.282614975941222</v>
       </c>
       <c r="I21" t="n">
-        <v>1.328540288283912</v>
+        <v>4.918351271697984</v>
       </c>
       <c r="J21" t="n">
-        <v>-0.5296342294531251</v>
+        <v>2.084032740527507</v>
       </c>
     </row>
     <row r="22">
@@ -1110,28 +1110,28 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>4.368504435919828</v>
+        <v>8.064847932459005</v>
       </c>
       <c r="D22" t="n">
-        <v>1.461695863614279</v>
+        <v>5.04642053294236</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.4717251494668294</v>
+        <v>1.034478993352</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.8795346334478601</v>
+        <v>1.205820941923527</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1745610052621689</v>
+        <v>3.446798410389531</v>
       </c>
       <c r="H22" t="n">
-        <v>-0.1091892515184228</v>
+        <v>4.040054444433688</v>
       </c>
       <c r="I22" t="n">
-        <v>1.283825668231266</v>
+        <v>4.722137517344334</v>
       </c>
       <c r="J22" t="n">
-        <v>-0.5516639871068696</v>
+        <v>1.943160327772672</v>
       </c>
     </row>
     <row r="23">
@@ -1142,28 +1142,28 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>4.443778000882603</v>
+        <v>8.336987969925675</v>
       </c>
       <c r="D23" t="n">
-        <v>1.547823621370025</v>
+        <v>5.350288003047717</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.4296683008034758</v>
+        <v>1.184329699690658</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.8090259918739138</v>
+        <v>1.461130517865288</v>
       </c>
       <c r="G23" t="n">
-        <v>0.2580422526677312</v>
+        <v>3.73751779113142</v>
       </c>
       <c r="H23" t="n">
-        <v>-0.01522462139436161</v>
+        <v>4.353377916183303</v>
       </c>
       <c r="I23" t="n">
-        <v>1.359529857582149</v>
+        <v>4.983263038833432</v>
       </c>
       <c r="J23" t="n">
-        <v>-0.4940304170046834</v>
+        <v>2.141611796331143</v>
       </c>
     </row>
     <row r="24">
@@ -1174,28 +1174,28 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>4.319399441834488</v>
+        <v>8.333181706647524</v>
       </c>
       <c r="D24" t="n">
-        <v>1.401300768557692</v>
+        <v>5.337499721664932</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.5060820032673357</v>
+        <v>1.18241669684784</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.940095980240109</v>
+        <v>1.448112581033231</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1226949567256879</v>
+        <v>3.727248101944869</v>
       </c>
       <c r="H24" t="n">
-        <v>-0.1440672946858756</v>
+        <v>4.348184411973044</v>
       </c>
       <c r="I24" t="n">
-        <v>1.241432142776544</v>
+        <v>4.983076004633285</v>
       </c>
       <c r="J24" t="n">
-        <v>-0.59594219377814</v>
+        <v>2.149295684852518</v>
       </c>
     </row>
     <row r="25">
@@ -1206,28 +1206,28 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>4.376368205205958</v>
+        <v>8.17103309318315</v>
       </c>
       <c r="D25" t="n">
-        <v>1.468222239552182</v>
+        <v>5.160098360248919</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.4663204026242347</v>
+        <v>1.08432887717921</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.8706828403809085</v>
+        <v>1.28698463623563</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1850773475332533</v>
+        <v>3.553524896795384</v>
       </c>
       <c r="H25" t="n">
-        <v>-0.09324590838209013</v>
+        <v>4.165296933657522</v>
       </c>
       <c r="I25" t="n">
-        <v>1.294409046831811</v>
+        <v>4.822490050689893</v>
       </c>
       <c r="J25" t="n">
-        <v>-0.5442194212339909</v>
+        <v>2.012973241272536</v>
       </c>
     </row>
     <row r="26">
@@ -1238,28 +1238,28 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>4.52460415486231</v>
+        <v>8.231636472746924</v>
       </c>
       <c r="D26" t="n">
-        <v>1.633585465093764</v>
+        <v>5.237119956175639</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.3788325704142304</v>
+        <v>1.137812052490028</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.7261847693174915</v>
+        <v>1.381862303886229</v>
       </c>
       <c r="G26" t="n">
-        <v>0.3443468985136663</v>
+        <v>3.63254199453321</v>
       </c>
       <c r="H26" t="n">
-        <v>0.07501881435677386</v>
+        <v>4.230817555471314</v>
       </c>
       <c r="I26" t="n">
-        <v>1.440574801632733</v>
+        <v>4.887343999280906</v>
       </c>
       <c r="J26" t="n">
-        <v>-0.4220796471266414</v>
+        <v>2.08053256426532</v>
       </c>
     </row>
     <row r="27">
@@ -1270,28 +1270,28 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>4.397205522495762</v>
+        <v>8.263429158715914</v>
       </c>
       <c r="D27" t="n">
-        <v>1.475928917858602</v>
+        <v>5.25323578125612</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.469834410385454</v>
+        <v>1.130986929581733</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.8855638533817416</v>
+        <v>1.360762646511934</v>
       </c>
       <c r="G27" t="n">
-        <v>0.1967143497221269</v>
+        <v>3.643799398319649</v>
       </c>
       <c r="H27" t="n">
-        <v>-0.05126011489500805</v>
+        <v>4.269273873935711</v>
       </c>
       <c r="I27" t="n">
-        <v>1.316835453971776</v>
+        <v>4.910088721373488</v>
       </c>
       <c r="J27" t="n">
-        <v>-0.5400831810018074</v>
+        <v>2.08027275254667</v>
       </c>
     </row>
     <row r="28">
@@ -1302,28 +1302,28 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>4.427528650389911</v>
+        <v>8.148705932241636</v>
       </c>
       <c r="D28" t="n">
-        <v>1.521114884758975</v>
+        <v>5.154261777923986</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.4432117299569934</v>
+        <v>1.091216916004374</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.8358291888139849</v>
+        <v>1.309082598301027</v>
       </c>
       <c r="G28" t="n">
-        <v>0.235699297908084</v>
+        <v>3.550402351512377</v>
       </c>
       <c r="H28" t="n">
-        <v>-0.02908691261481094</v>
+        <v>4.140655874904621</v>
       </c>
       <c r="I28" t="n">
-        <v>1.344712008109844</v>
+        <v>4.806795844743583</v>
       </c>
       <c r="J28" t="n">
-        <v>-0.5086524965885381</v>
+        <v>2.011944332248433</v>
       </c>
     </row>
     <row r="29">
@@ -1334,28 +1334,28 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>4.368392328543536</v>
+        <v>8.159941892893372</v>
       </c>
       <c r="D29" t="n">
-        <v>1.460710779149901</v>
+        <v>5.139523140955559</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.4720363945396333</v>
+        <v>1.078250150056945</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.8818576479525467</v>
+        <v>1.26758711608601</v>
       </c>
       <c r="G29" t="n">
-        <v>0.1736469906990167</v>
+        <v>3.533997131037892</v>
       </c>
       <c r="H29" t="n">
-        <v>-0.108599682586681</v>
+        <v>4.146360097433529</v>
       </c>
       <c r="I29" t="n">
-        <v>1.284494674975638</v>
+        <v>4.813058971283412</v>
       </c>
       <c r="J29" t="n">
-        <v>-0.5502697234336261</v>
+        <v>2.014309559173603</v>
       </c>
     </row>
     <row r="30">
@@ -1366,28 +1366,28 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>4.335893047079518</v>
+        <v>8.049115550345523</v>
       </c>
       <c r="D30" t="n">
-        <v>1.416585509560313</v>
+        <v>5.030540841782333</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.4984465701101219</v>
+        <v>1.024798667854526</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.9269764465929339</v>
+        <v>1.191805543724332</v>
       </c>
       <c r="G30" t="n">
-        <v>0.1335525465221079</v>
+        <v>3.435622458044251</v>
       </c>
       <c r="H30" t="n">
-        <v>-0.139856578443902</v>
+        <v>4.035907077018034</v>
       </c>
       <c r="I30" t="n">
-        <v>1.251374222018091</v>
+        <v>4.71088274743203</v>
       </c>
       <c r="J30" t="n">
-        <v>-0.5857091940711181</v>
+        <v>1.928155079245969</v>
       </c>
     </row>
     <row r="31">
@@ -1398,28 +1398,28 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>4.473190396769501</v>
+        <v>8.19194945268258</v>
       </c>
       <c r="D31" t="n">
-        <v>1.578206518841175</v>
+        <v>5.198489408438371</v>
       </c>
       <c r="E31" t="n">
-        <v>-0.4096145970029546</v>
+        <v>1.105510773845005</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.7703452142664732</v>
+        <v>1.336900208186006</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2926622739106535</v>
+        <v>3.591696430207679</v>
       </c>
       <c r="H31" t="n">
-        <v>0.01939824520245149</v>
+        <v>4.192248031894525</v>
       </c>
       <c r="I31" t="n">
-        <v>1.388223005488629</v>
+        <v>4.842898028019508</v>
       </c>
       <c r="J31" t="n">
-        <v>-0.4717610943294049</v>
+        <v>2.02681418416056</v>
       </c>
     </row>
     <row r="32">
@@ -1430,28 +1430,28 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>4.664344322851021</v>
+        <v>8.184677209172198</v>
       </c>
       <c r="D32" t="n">
-        <v>1.76833604503881</v>
+        <v>5.191932377242501</v>
       </c>
       <c r="E32" t="n">
-        <v>-0.3203789908185552</v>
+        <v>1.106231870110116</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.6347369729262009</v>
+        <v>1.337813906057985</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4758071560858501</v>
+        <v>3.585900921241989</v>
       </c>
       <c r="H32" t="n">
-        <v>0.2432915072485613</v>
+        <v>4.18022209705321</v>
       </c>
       <c r="I32" t="n">
-        <v>1.571689344607925</v>
+        <v>4.837147303526915</v>
       </c>
       <c r="J32" t="n">
-        <v>-0.3354277345595421</v>
+        <v>2.028366250131017</v>
       </c>
     </row>
     <row r="33">
@@ -1462,28 +1462,28 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>4.433530328061539</v>
+        <v>8.062233710101227</v>
       </c>
       <c r="D33" t="n">
-        <v>1.534090403111819</v>
+        <v>5.046244195818541</v>
       </c>
       <c r="E33" t="n">
-        <v>-0.4279971637879877</v>
+        <v>1.030062821060276</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.8067950375810575</v>
+        <v>1.205280004756079</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2504747192678173</v>
+        <v>3.445697828143488</v>
       </c>
       <c r="H33" t="n">
-        <v>-0.02661739201644216</v>
+        <v>4.037269612680192</v>
       </c>
       <c r="I33" t="n">
-        <v>1.353418459167181</v>
+        <v>4.715620642951183</v>
       </c>
       <c r="J33" t="n">
-        <v>-0.491290391836558</v>
+        <v>1.929898800799209</v>
       </c>
     </row>
     <row r="34">
@@ -1494,28 +1494,28 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>4.454080826408107</v>
+        <v>8.087412115241429</v>
       </c>
       <c r="D34" t="n">
-        <v>1.560010658788939</v>
+        <v>5.085040740876278</v>
       </c>
       <c r="E34" t="n">
-        <v>-0.4229844608318997</v>
+        <v>1.052417934194309</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.7949516119014938</v>
+        <v>1.243595984278195</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2735646009028785</v>
+        <v>3.481423005370064</v>
       </c>
       <c r="H34" t="n">
-        <v>0.005086575204427122</v>
+        <v>4.068241143158581</v>
       </c>
       <c r="I34" t="n">
-        <v>1.371907546126208</v>
+        <v>4.74469883979476</v>
       </c>
       <c r="J34" t="n">
-        <v>-0.4877885023322381</v>
+        <v>1.959734267461656</v>
       </c>
     </row>
     <row r="35">
@@ -1526,28 +1526,28 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>4.294195877438591</v>
+        <v>8.185334210894434</v>
       </c>
       <c r="D35" t="n">
-        <v>1.372520305451665</v>
+        <v>5.165566177772028</v>
       </c>
       <c r="E35" t="n">
-        <v>-0.5262214633526622</v>
+        <v>1.084651669757354</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.9720801192816899</v>
+        <v>1.280746730668988</v>
       </c>
       <c r="G35" t="n">
-        <v>0.08864354052220265</v>
+        <v>3.560571645971235</v>
       </c>
       <c r="H35" t="n">
-        <v>-0.1854601180567829</v>
+        <v>4.186656469866518</v>
       </c>
       <c r="I35" t="n">
-        <v>1.209076609442671</v>
+        <v>4.836899866830778</v>
       </c>
       <c r="J35" t="n">
-        <v>-0.6252339597172114</v>
+        <v>2.020330770775284</v>
       </c>
     </row>
     <row r="36">
@@ -1558,28 +1558,28 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>4.453683190528417</v>
+        <v>8.067533022058305</v>
       </c>
       <c r="D36" t="n">
-        <v>1.553933016983903</v>
+        <v>5.059451347578783</v>
       </c>
       <c r="E36" t="n">
-        <v>-0.4246677702772521</v>
+        <v>1.034788333964444</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.8014129573550621</v>
+        <v>1.2179627333212</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2710935942387194</v>
+        <v>3.456832945221192</v>
       </c>
       <c r="H36" t="n">
-        <v>0.009989267309689851</v>
+        <v>4.045458012721779</v>
       </c>
       <c r="I36" t="n">
-        <v>1.373966490834683</v>
+        <v>4.720543635532594</v>
       </c>
       <c r="J36" t="n">
-        <v>-0.4865722589267354</v>
+        <v>1.93134541043188</v>
       </c>
     </row>
     <row r="37">
@@ -1590,28 +1590,28 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>4.406863054448017</v>
+        <v>8.347178280074983</v>
       </c>
       <c r="D37" t="n">
-        <v>1.508572294668989</v>
+        <v>5.354619314120214</v>
       </c>
       <c r="E37" t="n">
-        <v>-0.4513048254990499</v>
+        <v>1.190767309383094</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.8376010117398003</v>
+        <v>1.462307679200117</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2207063128534783</v>
+        <v>3.74320756336543</v>
       </c>
       <c r="H37" t="n">
-        <v>-0.05958763550017608</v>
+        <v>4.365184667482458</v>
       </c>
       <c r="I37" t="n">
-        <v>1.319763862974944</v>
+        <v>4.997061354712674</v>
       </c>
       <c r="J37" t="n">
-        <v>-0.5314697526411699</v>
+        <v>2.160313720840793</v>
       </c>
     </row>
     <row r="38">
@@ -1622,28 +1622,28 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>4.433564022347243</v>
+        <v>8.231757054334091</v>
       </c>
       <c r="D38" t="n">
-        <v>1.534434342472618</v>
+        <v>5.231721851100376</v>
       </c>
       <c r="E38" t="n">
-        <v>-0.4368810697695096</v>
+        <v>1.122240487536943</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.815874136926852</v>
+        <v>1.352954293044269</v>
       </c>
       <c r="G38" t="n">
-        <v>0.2508145351183307</v>
+        <v>3.624166359124116</v>
       </c>
       <c r="H38" t="n">
-        <v>-0.01691693669115595</v>
+        <v>4.239898531584355</v>
       </c>
       <c r="I38" t="n">
-        <v>1.350495616930077</v>
+        <v>4.884124671551106</v>
       </c>
       <c r="J38" t="n">
-        <v>-0.5093337888368413</v>
+        <v>2.06201156897369</v>
       </c>
     </row>
     <row r="39">
@@ -1654,28 +1654,28 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>4.478894944575937</v>
+        <v>8.292479226152398</v>
       </c>
       <c r="D39" t="n">
-        <v>1.573642430736643</v>
+        <v>5.300190489325316</v>
       </c>
       <c r="E39" t="n">
-        <v>-0.408564154256838</v>
+        <v>1.160688422022616</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.7813765889654102</v>
+        <v>1.422049228536695</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2906651892988406</v>
+        <v>3.68734619715291</v>
       </c>
       <c r="H39" t="n">
-        <v>0.02882308409980222</v>
+        <v>4.292040999009536</v>
       </c>
       <c r="I39" t="n">
-        <v>1.398276926870423</v>
+        <v>4.936737920166475</v>
       </c>
       <c r="J39" t="n">
-        <v>-0.4575695098561692</v>
+        <v>2.108795879352031</v>
       </c>
     </row>
     <row r="40">
@@ -1686,28 +1686,28 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>4.461370641009701</v>
+        <v>8.091089482497487</v>
       </c>
       <c r="D40" t="n">
-        <v>1.556257149409695</v>
+        <v>5.068640868397142</v>
       </c>
       <c r="E40" t="n">
-        <v>-0.4306297518633557</v>
+        <v>1.035868327453773</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.8139142347339159</v>
+        <v>1.206312082625355</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2676743554907319</v>
+        <v>3.469365545762288</v>
       </c>
       <c r="H40" t="n">
-        <v>0.01006795748375988</v>
+        <v>4.084513430610263</v>
       </c>
       <c r="I40" t="n">
-        <v>1.374313073737361</v>
+        <v>4.746972516937047</v>
       </c>
       <c r="J40" t="n">
-        <v>-0.4920729443998035</v>
+        <v>1.946824930293335</v>
       </c>
     </row>
     <row r="41">
@@ -1718,28 +1718,28 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>4.460690561058726</v>
+        <v>8.154863392550414</v>
       </c>
       <c r="D41" t="n">
-        <v>1.544199519905616</v>
+        <v>5.146300918292318</v>
       </c>
       <c r="E41" t="n">
-        <v>-0.4428795432144442</v>
+        <v>1.082638224482758</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.8402792035534857</v>
+        <v>1.286565602525429</v>
       </c>
       <c r="G41" t="n">
-        <v>0.2552792764305171</v>
+        <v>3.544626489608536</v>
       </c>
       <c r="H41" t="n">
-        <v>0.01118420487273241</v>
+        <v>4.152869127272185</v>
       </c>
       <c r="I41" t="n">
-        <v>1.370657749006063</v>
+        <v>4.811770601924208</v>
       </c>
       <c r="J41" t="n">
-        <v>-0.5030269679776692</v>
+        <v>2.008547351890272</v>
       </c>
     </row>
     <row r="42">
@@ -1750,28 +1750,28 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>4.499482329579937</v>
+        <v>8.191701820784285</v>
       </c>
       <c r="D42" t="n">
-        <v>1.580400993896094</v>
+        <v>5.191397552674394</v>
       </c>
       <c r="E42" t="n">
-        <v>-0.4179062343764535</v>
+        <v>1.100632292776327</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.8069989949741345</v>
+        <v>1.324945646792433</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2930551078370718</v>
+        <v>3.582629703584792</v>
       </c>
       <c r="H42" t="n">
-        <v>0.05488090140571412</v>
+        <v>4.183593665412261</v>
       </c>
       <c r="I42" t="n">
-        <v>1.412614828801722</v>
+        <v>4.838731373823039</v>
       </c>
       <c r="J42" t="n">
-        <v>-0.4602929139654393</v>
+        <v>2.023881813159884</v>
       </c>
     </row>
     <row r="43">
@@ -1782,28 +1782,28 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>4.387098410141227</v>
+        <v>8.112547338019963</v>
       </c>
       <c r="D43" t="n">
-        <v>1.479183057366456</v>
+        <v>5.109825510398363</v>
       </c>
       <c r="E43" t="n">
-        <v>-0.4588942929226149</v>
+        <v>1.058599039748143</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.8621894138804038</v>
+        <v>1.25990777496</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1960092458329228</v>
+        <v>3.502886289064443</v>
       </c>
       <c r="H43" t="n">
-        <v>-0.07977682510124122</v>
+        <v>4.09088773731138</v>
       </c>
       <c r="I43" t="n">
-        <v>1.307330591304458</v>
+        <v>4.760584434838635</v>
       </c>
       <c r="J43" t="n">
-        <v>-0.5300098491789097</v>
+        <v>1.961460147786316</v>
       </c>
     </row>
     <row r="44">
@@ -1814,28 +1814,28 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>4.373332473599276</v>
+        <v>8.290505656095867</v>
       </c>
       <c r="D44" t="n">
-        <v>1.462078025980392</v>
+        <v>5.298413868182385</v>
       </c>
       <c r="E44" t="n">
-        <v>-0.4761148888723449</v>
+        <v>1.15894386577047</v>
       </c>
       <c r="F44" t="n">
-        <v>-0.8871251563982867</v>
+        <v>1.417332783151154</v>
       </c>
       <c r="G44" t="n">
-        <v>0.1750786183983916</v>
+        <v>3.684968538798116</v>
       </c>
       <c r="H44" t="n">
-        <v>-0.1004130035562117</v>
+        <v>4.291873865800422</v>
       </c>
       <c r="I44" t="n">
-        <v>1.286301080886691</v>
+        <v>4.93587483464433</v>
       </c>
       <c r="J44" t="n">
-        <v>-0.5574184181198458</v>
+        <v>2.108219166710154</v>
       </c>
     </row>
     <row r="45">
@@ -1846,28 +1846,28 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>4.500586468894532</v>
+        <v>8.200828696696481</v>
       </c>
       <c r="D45" t="n">
-        <v>1.584520373871279</v>
+        <v>5.189151649111787</v>
       </c>
       <c r="E45" t="n">
-        <v>-0.4117697491998864</v>
+        <v>1.094094210312966</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.7984034033947196</v>
+        <v>1.303432439830008</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2982805830789222</v>
+        <v>3.583750098701243</v>
       </c>
       <c r="H45" t="n">
-        <v>0.0580647859287776</v>
+        <v>4.210409862179623</v>
       </c>
       <c r="I45" t="n">
-        <v>1.417631761998884</v>
+        <v>4.851746668435184</v>
       </c>
       <c r="J45" t="n">
-        <v>-0.4500944796440637</v>
+        <v>2.025949947988004</v>
       </c>
     </row>
     <row r="46">
@@ -1878,28 +1878,28 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>4.599242168358049</v>
+        <v>8.186528163733291</v>
       </c>
       <c r="D46" t="n">
-        <v>1.700698208868039</v>
+        <v>5.161722884578184</v>
       </c>
       <c r="E46" t="n">
-        <v>-0.3479941658526485</v>
+        <v>1.085104235649395</v>
       </c>
       <c r="F46" t="n">
-        <v>-0.6834881682346775</v>
+        <v>1.278745409858031</v>
       </c>
       <c r="G46" t="n">
-        <v>0.4135853588096432</v>
+        <v>3.561211715081501</v>
       </c>
       <c r="H46" t="n">
-        <v>0.1728828412027823</v>
+        <v>4.194029895423096</v>
       </c>
       <c r="I46" t="n">
-        <v>1.515183462870468</v>
+        <v>4.841115789072826</v>
       </c>
       <c r="J46" t="n">
-        <v>-0.370839291830878</v>
+        <v>2.023913700032204</v>
       </c>
     </row>
     <row r="47">
@@ -1910,28 +1910,28 @@
         <v>0</v>
       </c>
       <c r="C47" t="n">
-        <v>4.533805255822648</v>
+        <v>8.043760025774692</v>
       </c>
       <c r="D47" t="n">
-        <v>1.644316512994196</v>
+        <v>5.021081405041791</v>
       </c>
       <c r="E47" t="n">
-        <v>-0.3768485967253322</v>
+        <v>1.016218634811322</v>
       </c>
       <c r="F47" t="n">
-        <v>-0.7183529464698298</v>
+        <v>1.174116664644088</v>
       </c>
       <c r="G47" t="n">
-        <v>0.3562446438157968</v>
+        <v>3.417942291297737</v>
       </c>
       <c r="H47" t="n">
-        <v>0.09218782495989598</v>
+        <v>4.010841140221642</v>
       </c>
       <c r="I47" t="n">
-        <v>1.448680786728887</v>
+        <v>4.697027783024013</v>
       </c>
       <c r="J47" t="n">
-        <v>-0.4238874371957325</v>
+        <v>1.919144992396403</v>
       </c>
     </row>
     <row r="48">
@@ -1942,28 +1942,28 @@
         <v>0</v>
       </c>
       <c r="C48" t="n">
-        <v>4.552717550224299</v>
+        <v>8.161483161670441</v>
       </c>
       <c r="D48" t="n">
-        <v>1.635934980884499</v>
+        <v>5.148015208041654</v>
       </c>
       <c r="E48" t="n">
-        <v>-0.3981562544542003</v>
+        <v>1.072316087311339</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.7742344206719016</v>
+        <v>1.266764939949886</v>
       </c>
       <c r="G48" t="n">
-        <v>0.3434319722004096</v>
+        <v>3.537445295312488</v>
       </c>
       <c r="H48" t="n">
-        <v>0.1179833330795624</v>
+        <v>4.149673265099252</v>
       </c>
       <c r="I48" t="n">
-        <v>1.460281592047322</v>
+        <v>4.80817969529384</v>
       </c>
       <c r="J48" t="n">
-        <v>-0.4327469336507525</v>
+        <v>1.996339366263003</v>
       </c>
     </row>
     <row r="49">
@@ -1974,28 +1974,28 @@
         <v>0</v>
       </c>
       <c r="C49" t="n">
-        <v>4.442103883971591</v>
+        <v>8.223085041181177</v>
       </c>
       <c r="D49" t="n">
-        <v>1.529092289384232</v>
+        <v>5.205497158596189</v>
       </c>
       <c r="E49" t="n">
-        <v>-0.439010693681915</v>
+        <v>1.104744098764979</v>
       </c>
       <c r="F49" t="n">
-        <v>-0.8347824559635396</v>
+        <v>1.313477500792688</v>
       </c>
       <c r="G49" t="n">
-        <v>0.2457240682832576</v>
+        <v>3.603112226916378</v>
       </c>
       <c r="H49" t="n">
-        <v>-0.008058142149252129</v>
+        <v>4.241477992120961</v>
       </c>
       <c r="I49" t="n">
-        <v>1.360568286740232</v>
+        <v>4.877486027085942</v>
       </c>
       <c r="J49" t="n">
-        <v>-0.4968900869085189</v>
+        <v>2.048720553669462</v>
       </c>
     </row>
     <row r="50">
@@ -2006,28 +2006,28 @@
         <v>0</v>
       </c>
       <c r="C50" t="n">
-        <v>4.531529687264794</v>
+        <v>8.32445566972565</v>
       </c>
       <c r="D50" t="n">
-        <v>1.643436107724064</v>
+        <v>5.330294798291559</v>
       </c>
       <c r="E50" t="n">
-        <v>-0.3815250732575744</v>
+        <v>1.174164346378814</v>
       </c>
       <c r="F50" t="n">
-        <v>-0.7245257489679237</v>
+        <v>1.44068919816737</v>
       </c>
       <c r="G50" t="n">
-        <v>0.3527250685776749</v>
+        <v>3.722924886293602</v>
       </c>
       <c r="H50" t="n">
-        <v>0.08866359145084952</v>
+        <v>4.349511939391506</v>
       </c>
       <c r="I50" t="n">
-        <v>1.443948509602622</v>
+        <v>4.974693864469929</v>
       </c>
       <c r="J50" t="n">
-        <v>-0.4319648743312697</v>
+        <v>2.131556851902274</v>
       </c>
     </row>
     <row r="51">
@@ -2038,28 +2038,28 @@
         <v>0</v>
       </c>
       <c r="C51" t="n">
-        <v>4.507132740311916</v>
+        <v>8.120012929037461</v>
       </c>
       <c r="D51" t="n">
-        <v>1.598836692523471</v>
+        <v>5.096276777875918</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.4087598821620731</v>
+        <v>1.05321655703881</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.7833388221954073</v>
+        <v>1.227293323466385</v>
       </c>
       <c r="G51" t="n">
-        <v>0.3127501587293717</v>
+        <v>3.491526262107246</v>
       </c>
       <c r="H51" t="n">
-        <v>0.07198612304687496</v>
+        <v>4.102658260951428</v>
       </c>
       <c r="I51" t="n">
-        <v>1.42236324399196</v>
+        <v>4.77314434378731</v>
       </c>
       <c r="J51" t="n">
-        <v>-0.4561158299814378</v>
+        <v>1.978536809460381</v>
       </c>
     </row>
     <row r="52">
@@ -2070,28 +2070,28 @@
         <v>0</v>
       </c>
       <c r="C52" t="n">
-        <v>4.535927538187532</v>
+        <v>8.218263325287687</v>
       </c>
       <c r="D52" t="n">
-        <v>1.638457632437433</v>
+        <v>5.20414904989998</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.3825060517221011</v>
+        <v>1.108776140160571</v>
       </c>
       <c r="F52" t="n">
-        <v>-0.7347885227867278</v>
+        <v>1.319128891900658</v>
       </c>
       <c r="G52" t="n">
-        <v>0.3458140429705874</v>
+        <v>3.597072064915279</v>
       </c>
       <c r="H52" t="n">
-        <v>0.08322352473601911</v>
+        <v>4.219434431395613</v>
       </c>
       <c r="I52" t="n">
-        <v>1.445913808739678</v>
+        <v>4.870625342776806</v>
       </c>
       <c r="J52" t="n">
-        <v>-0.4245818392555952</v>
+        <v>2.055318652053944</v>
       </c>
     </row>
     <row r="53">
@@ -2102,28 +2102,28 @@
         <v>0</v>
       </c>
       <c r="C53" t="n">
-        <v>4.475767758729118</v>
+        <v>8.143609748747103</v>
       </c>
       <c r="D53" t="n">
-        <v>1.57183733386898</v>
+        <v>5.150334473959041</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.4116207728558444</v>
+        <v>1.08864663748898</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.7841716305801111</v>
+        <v>1.309586439597933</v>
       </c>
       <c r="G53" t="n">
-        <v>0.2883036829531242</v>
+        <v>3.547271564838868</v>
       </c>
       <c r="H53" t="n">
-        <v>0.02643766594259622</v>
+        <v>4.134570759237327</v>
       </c>
       <c r="I53" t="n">
-        <v>1.394212965366532</v>
+        <v>4.800016488643245</v>
       </c>
       <c r="J53" t="n">
-        <v>-0.4640441880335132</v>
+        <v>2.003376954841958</v>
       </c>
     </row>
     <row r="54">
@@ -2134,28 +2134,28 @@
         <v>0</v>
       </c>
       <c r="C54" t="n">
-        <v>4.454900723506961</v>
+        <v>8.143915143874832</v>
       </c>
       <c r="D54" t="n">
-        <v>1.545219030068659</v>
+        <v>5.152249504251508</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.4325985287591082</v>
+        <v>1.091944665317677</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.8256572930832411</v>
+        <v>1.316188082777662</v>
       </c>
       <c r="G54" t="n">
-        <v>0.2570580967535174</v>
+        <v>3.548738878750647</v>
       </c>
       <c r="H54" t="n">
-        <v>0.0009217368882809545</v>
+        <v>4.130331245084504</v>
       </c>
       <c r="I54" t="n">
-        <v>1.371242705331107</v>
+        <v>4.799838855521225</v>
       </c>
       <c r="J54" t="n">
-        <v>-0.486328052528388</v>
+        <v>2.006811344347571</v>
       </c>
     </row>
     <row r="55">
@@ -2166,28 +2166,28 @@
         <v>0</v>
       </c>
       <c r="C55" t="n">
-        <v>4.449413456505163</v>
+        <v>8.126089698220294</v>
       </c>
       <c r="D55" t="n">
-        <v>1.558976951945923</v>
+        <v>5.119515297321586</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.4132318161766697</v>
+        <v>1.065148800565816</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.7774381957799182</v>
+        <v>1.261204001357872</v>
       </c>
       <c r="G55" t="n">
-        <v>0.2746723228947753</v>
+        <v>3.511167167840784</v>
       </c>
       <c r="H55" t="n">
-        <v>-0.008241972558926914</v>
+        <v>4.105217678431765</v>
       </c>
       <c r="I55" t="n">
-        <v>1.370091169607437</v>
+        <v>4.77635110818295</v>
       </c>
       <c r="J55" t="n">
-        <v>-0.4757008933333965</v>
+        <v>1.980309829912619</v>
       </c>
     </row>
     <row r="56">
@@ -2198,28 +2198,28 @@
         <v>0</v>
       </c>
       <c r="C56" t="n">
-        <v>4.518727345466222</v>
+        <v>8.096702237799567</v>
       </c>
       <c r="D56" t="n">
-        <v>1.589066027361785</v>
+        <v>5.088538756522955</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.4099938189341201</v>
+        <v>1.056487268989827</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.8024741417374863</v>
+        <v>1.247713834112651</v>
       </c>
       <c r="G56" t="n">
-        <v>0.3086012843935781</v>
+        <v>3.48683187706845</v>
       </c>
       <c r="H56" t="n">
-        <v>0.08813805605313831</v>
+        <v>4.075833041432049</v>
       </c>
       <c r="I56" t="n">
-        <v>1.436880661403725</v>
+        <v>4.753168084089151</v>
       </c>
       <c r="J56" t="n">
-        <v>-0.4408080296853682</v>
+        <v>1.968148320417238</v>
       </c>
     </row>
     <row r="57">
@@ -2230,28 +2230,28 @@
         <v>0</v>
       </c>
       <c r="C57" t="n">
-        <v>4.48092246008435</v>
+        <v>8.189572860059219</v>
       </c>
       <c r="D57" t="n">
-        <v>1.56550015080547</v>
+        <v>5.19317111186377</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.4213156330797837</v>
+        <v>1.111653758819645</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.8113892967556467</v>
+        <v>1.34235471856102</v>
       </c>
       <c r="G57" t="n">
-        <v>0.2816025017707333</v>
+        <v>3.589477101694373</v>
       </c>
       <c r="H57" t="n">
-        <v>0.03993702993074004</v>
+        <v>4.184887086883069</v>
       </c>
       <c r="I57" t="n">
-        <v>1.399735724311236</v>
+        <v>4.844598854570766</v>
       </c>
       <c r="J57" t="n">
-        <v>-0.466269398244316</v>
+        <v>2.040588469351531</v>
       </c>
     </row>
     <row r="58">
@@ -2262,28 +2262,28 @@
         <v>0</v>
       </c>
       <c r="C58" t="n">
-        <v>4.386657627653888</v>
+        <v>8.226746819037231</v>
       </c>
       <c r="D58" t="n">
-        <v>1.460212513342938</v>
+        <v>5.221523299990376</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.4796525846346092</v>
+        <v>1.121716639299734</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.905055084913774</v>
+        <v>1.348126496912781</v>
       </c>
       <c r="G58" t="n">
-        <v>0.1779375420887003</v>
+        <v>3.616795015480823</v>
       </c>
       <c r="H58" t="n">
-        <v>-0.07222415579065297</v>
+        <v>4.232915737328139</v>
       </c>
       <c r="I58" t="n">
-        <v>1.30268559343236</v>
+        <v>4.881233009900387</v>
       </c>
       <c r="J58" t="n">
-        <v>-0.5503433911289364</v>
+        <v>2.065317791964207</v>
       </c>
     </row>
     <row r="59">
@@ -2294,28 +2294,28 @@
         <v>0</v>
       </c>
       <c r="C59" t="n">
-        <v>4.45013373119167</v>
+        <v>8.144081822295098</v>
       </c>
       <c r="D59" t="n">
-        <v>1.548907832447121</v>
+        <v>5.141637578083173</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.4357444835663025</v>
+        <v>1.078011988914321</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.8201341868721899</v>
+        <v>1.289196856536908</v>
       </c>
       <c r="G59" t="n">
-        <v>0.2581697000436048</v>
+        <v>3.536414905615757</v>
       </c>
       <c r="H59" t="n">
-        <v>-0.004787810573174282</v>
+        <v>4.130334750788487</v>
       </c>
       <c r="I59" t="n">
-        <v>1.362483078066165</v>
+        <v>4.794345704572017</v>
       </c>
       <c r="J59" t="n">
-        <v>-0.5013892477925016</v>
+        <v>1.991224740330146</v>
       </c>
     </row>
     <row r="60">
@@ -2326,28 +2326,28 @@
         <v>0</v>
       </c>
       <c r="C60" t="n">
-        <v>4.453508321884353</v>
+        <v>8.17662067904687</v>
       </c>
       <c r="D60" t="n">
-        <v>1.540122790356592</v>
+        <v>5.17595632464993</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.4288341303644993</v>
+        <v>1.102134464429464</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.8195539399526061</v>
+        <v>1.324716073584443</v>
       </c>
       <c r="G60" t="n">
-        <v>0.2548073019851629</v>
+        <v>3.569404592749226</v>
       </c>
       <c r="H60" t="n">
-        <v>-0.00706069416967658</v>
+        <v>4.159679820664926</v>
       </c>
       <c r="I60" t="n">
-        <v>1.369846988169941</v>
+        <v>4.827678949075532</v>
       </c>
       <c r="J60" t="n">
-        <v>-0.4810792802297971</v>
+        <v>2.029049912875896</v>
       </c>
     </row>
     <row r="61">
@@ -2358,28 +2358,28 @@
         <v>0</v>
       </c>
       <c r="C61" t="n">
-        <v>4.350695700939805</v>
+        <v>8.037614054762136</v>
       </c>
       <c r="D61" t="n">
-        <v>1.43298266084129</v>
+        <v>5.020154695035546</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.4811989270481205</v>
+        <v>1.017187631855478</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.9008006688433662</v>
+        <v>1.180524629655526</v>
       </c>
       <c r="G61" t="n">
-        <v>0.1554215063868148</v>
+        <v>3.420703436861884</v>
       </c>
       <c r="H61" t="n">
-        <v>-0.1169757537671926</v>
+        <v>4.013570724265597</v>
       </c>
       <c r="I61" t="n">
-        <v>1.273060200579695</v>
+        <v>4.695095338158612</v>
       </c>
       <c r="J61" t="n">
-        <v>-0.5594902656231836</v>
+        <v>1.915883730486313</v>
       </c>
     </row>
     <row r="62">
@@ -2390,28 +2390,28 @@
         <v>0</v>
       </c>
       <c r="C62" t="n">
-        <v>4.53403626211777</v>
+        <v>8.215807322446631</v>
       </c>
       <c r="D62" t="n">
-        <v>1.616588366020883</v>
+        <v>5.213990704784285</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.3966800014345108</v>
+        <v>1.110161201496665</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.7740267825697745</v>
+        <v>1.336945454851378</v>
       </c>
       <c r="G62" t="n">
-        <v>0.3317844193587975</v>
+        <v>3.607691101666525</v>
       </c>
       <c r="H62" t="n">
-        <v>0.1019986386998447</v>
+        <v>4.224156571268165</v>
       </c>
       <c r="I62" t="n">
-        <v>1.450590487050649</v>
+        <v>4.866302559117832</v>
       </c>
       <c r="J62" t="n">
-        <v>-0.4285851685928938</v>
+        <v>2.041026364121431</v>
       </c>
     </row>
     <row r="63">
@@ -2422,28 +2422,28 @@
         <v>0</v>
       </c>
       <c r="C63" t="n">
-        <v>4.297296726840435</v>
+        <v>8.150369827849449</v>
       </c>
       <c r="D63" t="n">
-        <v>1.373837003255413</v>
+        <v>5.158197673778671</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.525124856839415</v>
+        <v>1.08811529443004</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.9705830089626363</v>
+        <v>1.311098321902142</v>
       </c>
       <c r="G63" t="n">
-        <v>0.09030806246499538</v>
+        <v>3.547128742400315</v>
       </c>
       <c r="H63" t="n">
-        <v>-0.1832436284180115</v>
+        <v>4.125265947842776</v>
       </c>
       <c r="I63" t="n">
-        <v>1.21141512327186</v>
+        <v>4.797126457261866</v>
       </c>
       <c r="J63" t="n">
-        <v>-0.6233520048880532</v>
+        <v>1.999453123070627</v>
       </c>
     </row>
     <row r="64">
@@ -2454,28 +2454,28 @@
         <v>0</v>
       </c>
       <c r="C64" t="n">
-        <v>4.478429018807636</v>
+        <v>8.2626933407059</v>
       </c>
       <c r="D64" t="n">
-        <v>1.578844371075934</v>
+        <v>5.266308246136869</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.4061564964078704</v>
+        <v>1.142311288204802</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.7730270851485208</v>
+        <v>1.3858606283207</v>
       </c>
       <c r="G64" t="n">
-        <v>0.2952823668821055</v>
+        <v>3.656634852661106</v>
       </c>
       <c r="H64" t="n">
-        <v>0.02915605222265747</v>
+        <v>4.270275197974471</v>
       </c>
       <c r="I64" t="n">
-        <v>1.397897576343741</v>
+        <v>4.91369073189226</v>
       </c>
       <c r="J64" t="n">
-        <v>-0.4585989432911504</v>
+        <v>2.089782820472964</v>
       </c>
     </row>
     <row r="65">
@@ -2486,28 +2486,28 @@
         <v>0</v>
       </c>
       <c r="C65" t="n">
-        <v>4.474533361825051</v>
+        <v>8.09104015451315</v>
       </c>
       <c r="D65" t="n">
-        <v>1.551274700496697</v>
+        <v>5.082930404073285</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.4388220800918052</v>
+        <v>1.049044253690312</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.8395867112969364</v>
+        <v>1.238402447764313</v>
       </c>
       <c r="G65" t="n">
-        <v>0.260856179738163</v>
+        <v>3.476275685451886</v>
       </c>
       <c r="H65" t="n">
-        <v>0.02007625109847498</v>
+        <v>4.060156887654098</v>
       </c>
       <c r="I65" t="n">
-        <v>1.382005492626731</v>
+        <v>4.740578710431905</v>
       </c>
       <c r="J65" t="n">
-        <v>-0.4913397051990208</v>
+        <v>1.953960683415301</v>
       </c>
     </row>
     <row r="66">
@@ -2518,28 +2518,28 @@
         <v>0</v>
       </c>
       <c r="C66" t="n">
-        <v>4.558794533502359</v>
+        <v>8.115377616462094</v>
       </c>
       <c r="D66" t="n">
-        <v>1.641400633938994</v>
+        <v>5.100044417767052</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.3841064243887408</v>
+        <v>1.058212817783249</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.7542569211135898</v>
+        <v>1.246246088410788</v>
       </c>
       <c r="G66" t="n">
-        <v>0.3554114278867445</v>
+        <v>3.501117661272006</v>
       </c>
       <c r="H66" t="n">
-        <v>0.128213217880957</v>
+        <v>4.108615344450397</v>
       </c>
       <c r="I66" t="n">
-        <v>1.473685896178329</v>
+        <v>4.772475588667511</v>
       </c>
       <c r="J66" t="n">
-        <v>-0.410080448233991</v>
+        <v>1.974719485539236</v>
       </c>
     </row>
     <row r="67">
@@ -2550,28 +2550,28 @@
         <v>0</v>
       </c>
       <c r="C67" t="n">
-        <v>4.481723319546503</v>
+        <v>8.208500082029133</v>
       </c>
       <c r="D67" t="n">
-        <v>1.562074777662517</v>
+        <v>5.195442287888725</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.4343703079663754</v>
+        <v>1.107070749768852</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.8301260871208515</v>
+        <v>1.321023206448081</v>
       </c>
       <c r="G67" t="n">
-        <v>0.2759711483906441</v>
+        <v>3.589052313104986</v>
       </c>
       <c r="H67" t="n">
-        <v>0.0451830507407221</v>
+        <v>4.202076204310218</v>
       </c>
       <c r="I67" t="n">
-        <v>1.39440726896434</v>
+        <v>4.858880141390253</v>
       </c>
       <c r="J67" t="n">
-        <v>-0.4872981968189047</v>
+        <v>2.04797606628636</v>
       </c>
     </row>
     <row r="68">
@@ -2582,28 +2582,28 @@
         <v>0</v>
       </c>
       <c r="C68" t="n">
-        <v>4.483921005684869</v>
+        <v>8.168841595169901</v>
       </c>
       <c r="D68" t="n">
-        <v>1.558616628986635</v>
+        <v>5.160223649634697</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.436666430847183</v>
+        <v>1.082093670820348</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.8413604724812227</v>
+        <v>1.289978894588092</v>
       </c>
       <c r="G68" t="n">
-        <v>0.2669372028849985</v>
+        <v>3.553802217931618</v>
       </c>
       <c r="H68" t="n">
-        <v>0.03289063405044878</v>
+        <v>4.162924939147715</v>
       </c>
       <c r="I68" t="n">
-        <v>1.392281036294569</v>
+        <v>4.817266138130226</v>
       </c>
       <c r="J68" t="n">
-        <v>-0.4828981214415327</v>
+        <v>2.002773491227773</v>
       </c>
     </row>
     <row r="69">
@@ -2614,28 +2614,28 @@
         <v>0</v>
       </c>
       <c r="C69" t="n">
-        <v>4.550963176103835</v>
+        <v>8.264038692439691</v>
       </c>
       <c r="D69" t="n">
-        <v>1.632889726233193</v>
+        <v>5.254849089204821</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.3917957977561712</v>
+        <v>1.129639562678486</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.7638430623629403</v>
+        <v>1.362219445921444</v>
       </c>
       <c r="G69" t="n">
-        <v>0.3474914182814537</v>
+        <v>3.647534902485944</v>
       </c>
       <c r="H69" t="n">
-        <v>0.1225836085852196</v>
+        <v>4.276835619630989</v>
       </c>
       <c r="I69" t="n">
-        <v>1.464483680095656</v>
+        <v>4.911078747767413</v>
       </c>
       <c r="J69" t="n">
-        <v>-0.4239227017891185</v>
+        <v>2.074793761339758</v>
       </c>
     </row>
     <row r="70">
@@ -2646,28 +2646,28 @@
         <v>0</v>
       </c>
       <c r="C70" t="n">
-        <v>4.606451205533085</v>
+        <v>8.243085514830231</v>
       </c>
       <c r="D70" t="n">
-        <v>1.713249842284948</v>
+        <v>5.235076173749311</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.3445281358204753</v>
+        <v>1.128388075432828</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.673626368280515</v>
+        <v>1.357106458488408</v>
       </c>
       <c r="G70" t="n">
-        <v>0.4226853684236101</v>
+        <v>3.62878383083644</v>
       </c>
       <c r="H70" t="n">
-        <v>0.1777842734449458</v>
+        <v>4.245513600832975</v>
       </c>
       <c r="I70" t="n">
-        <v>1.519307490462173</v>
+        <v>4.894640463655656</v>
       </c>
       <c r="J70" t="n">
-        <v>-0.3701490062723042</v>
+        <v>2.076684574202333</v>
       </c>
     </row>
     <row r="71">
@@ -2678,28 +2678,28 @@
         <v>0</v>
       </c>
       <c r="C71" t="n">
-        <v>4.398318804706569</v>
+        <v>8.242483089739018</v>
       </c>
       <c r="D71" t="n">
-        <v>1.493467882964673</v>
+        <v>5.230984769039359</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.4518085852557499</v>
+        <v>1.121661669264077</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.8459546361871595</v>
+        <v>1.344590059505588</v>
       </c>
       <c r="G71" t="n">
-        <v>0.208704608240616</v>
+        <v>3.621905237523343</v>
       </c>
       <c r="H71" t="n">
-        <v>-0.0721869127671238</v>
+        <v>4.24190353925833</v>
       </c>
       <c r="I71" t="n">
-        <v>1.315189769643313</v>
+        <v>4.890074681012066</v>
       </c>
       <c r="J71" t="n">
-        <v>-0.524649675093689</v>
+        <v>2.068333763424762</v>
       </c>
     </row>
   </sheetData>
